--- a/data_results/resultados_markowitz.xlsx
+++ b/data_results/resultados_markowitz.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0878138</v>
+        <v>0.08640795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0363912</v>
+        <v>0.03607851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19728987</v>
+        <v>0.21203819</v>
       </c>
       <c r="E2" t="n">
-        <v>0.23368106</v>
+        <v>0.2481167</v>
       </c>
       <c r="F2" t="n">
-        <v>0.76430019</v>
+        <v>0.731958</v>
       </c>
       <c r="G2" t="n">
-        <v>1.60570288</v>
+        <v>1.33742404</v>
       </c>
     </row>
   </sheetData>
